--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1476700.915765482</v>
+        <v>-1479570.343608802</v>
       </c>
     </row>
     <row r="7">
@@ -659,16 +659,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>332.2709477349027</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>61.8891288592818</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>128.7282531589275</v>
+        <v>230.2634979541059</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>131.1019666843681</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>246.3477836159939</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>128.0537032279749</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>133.213740718609</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>273.0783654409807</v>
       </c>
       <c r="G8" t="n">
-        <v>244.9191390030086</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>72.95918393562894</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>71.00247172658035</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182141</v>
       </c>
       <c r="E13" t="n">
-        <v>8.483880264975597e-13</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.799772605715268</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>177.2869857517478</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>217.6587144826193</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>193.7763380130611</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>173.749437628434</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,10 +2239,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046975</v>
       </c>
       <c r="D22" t="n">
-        <v>9.146142788179368</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,13 +2476,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>104.8913819999787</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>32.27552175740387</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,16 +2722,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>120.7871326503972</v>
       </c>
       <c r="H28" t="n">
-        <v>79.75167225698492</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2950,7 +2950,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
         <v>124.3308255261727</v>
@@ -2959,16 +2959,16 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541844</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652588</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808158</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3004,7 +3004,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
@@ -3013,7 +3013,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,7 +3187,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
         <v>124.3308255261727</v>
@@ -3196,16 +3196,16 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541844</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652587</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3241,16 +3241,16 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445508</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,7 +3424,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
         <v>124.3308255261727</v>
@@ -3433,16 +3433,16 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652586</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3478,7 +3478,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808192</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1345.623078162045</v>
+        <v>1133.624152959604</v>
       </c>
       <c r="C2" t="n">
-        <v>976.6605612216329</v>
+        <v>1133.624152959604</v>
       </c>
       <c r="D2" t="n">
-        <v>618.3948626148824</v>
+        <v>775.3584543528539</v>
       </c>
       <c r="E2" t="n">
-        <v>618.3948626148824</v>
+        <v>389.5702017546096</v>
       </c>
       <c r="F2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2520.971603332393</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V2" t="n">
-        <v>2458.45733175736</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W2" t="n">
-        <v>2105.688676487246</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="X2" t="n">
-        <v>1732.222918226166</v>
+        <v>1520.223993023726</v>
       </c>
       <c r="Y2" t="n">
-        <v>1732.222918226166</v>
+        <v>1520.223993023726</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2339.812365142453</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>2170.876182214546</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>2170.876182214546</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>2697.149091018222</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>2469.840903686824</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U4" t="n">
-        <v>2469.840903686824</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V4" t="n">
-        <v>2339.812365142453</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>2339.812365142453</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>2339.812365142453</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>2339.812365142453</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>764.7444956504007</v>
+        <v>1533.27522618254</v>
       </c>
       <c r="C5" t="n">
-        <v>764.7444956504007</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="D5" t="n">
-        <v>764.7444956504007</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E5" t="n">
-        <v>764.7444956504007</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>353.7585908607932</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>339.8351867993841</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4598,19 +4598,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>1528.349585887292</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X5" t="n">
-        <v>1154.883827626212</v>
+        <v>1533.27522618254</v>
       </c>
       <c r="Y5" t="n">
-        <v>764.7444956504007</v>
+        <v>1533.27522618254</v>
       </c>
     </row>
     <row r="6">
@@ -4644,22 +4644,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>370.7922583306645</v>
+        <v>188.5023158795654</v>
       </c>
       <c r="C7" t="n">
-        <v>201.8560754027576</v>
+        <v>188.5023158795654</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>409.2948950230955</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084169</v>
+        <v>409.2948950230955</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.1394333084169</v>
+        <v>188.5023158795654</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1586.765696448526</v>
+        <v>1939.53435171864</v>
       </c>
       <c r="C8" t="n">
-        <v>1217.803179508114</v>
+        <v>1570.571834778228</v>
       </c>
       <c r="D8" t="n">
-        <v>1217.803179508114</v>
+        <v>1570.571834778228</v>
       </c>
       <c r="E8" t="n">
-        <v>832.0149269098699</v>
+        <v>1184.783582179984</v>
       </c>
       <c r="F8" t="n">
-        <v>421.0290221202624</v>
+        <v>908.9468494113166</v>
       </c>
       <c r="G8" t="n">
-        <v>173.6359524202537</v>
+        <v>491.8590676477442</v>
       </c>
       <c r="H8" t="n">
         <v>173.6359524202537</v>
@@ -4808,19 +4808,19 @@
         <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>785.3786496953994</v>
+        <v>1198.863252100346</v>
       </c>
       <c r="M8" t="n">
-        <v>972.0780625208071</v>
+        <v>1385.562664925753</v>
       </c>
       <c r="N8" t="n">
-        <v>1475.49687913695</v>
+        <v>2012.8703329856</v>
       </c>
       <c r="O8" t="n">
-        <v>2022.658083904027</v>
+        <v>2183.039358302559</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243322</v>
+        <v>2612.354404641854</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4841,13 +4841,13 @@
         <v>2326.134191782762</v>
       </c>
       <c r="W8" t="n">
-        <v>1973.365536512648</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="X8" t="n">
-        <v>1973.365536512648</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="Y8" t="n">
-        <v>1973.365536512648</v>
+        <v>2326.134191782762</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3713861261743</v>
+        <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
-        <v>887.7329259922928</v>
+        <v>1006.392177849189</v>
       </c>
       <c r="M9" t="n">
-        <v>1067.230262346898</v>
+        <v>1646.937527316293</v>
       </c>
       <c r="N9" t="n">
-        <v>1432.170805967367</v>
+        <v>2314.481927343303</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>2504.861470532118</v>
       </c>
       <c r="P9" t="n">
-        <v>2405.574583200926</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>571.203624175805</v>
+        <v>355.0875724185097</v>
       </c>
       <c r="C10" t="n">
-        <v>402.2674412478981</v>
+        <v>355.0875724185097</v>
       </c>
       <c r="D10" t="n">
-        <v>252.1508018355624</v>
+        <v>355.0875724185097</v>
       </c>
       <c r="E10" t="n">
-        <v>178.4546564460382</v>
+        <v>355.0875724185097</v>
       </c>
       <c r="F10" t="n">
-        <v>178.4546564460382</v>
+        <v>208.1976249205994</v>
       </c>
       <c r="G10" t="n">
-        <v>178.4546564460382</v>
+        <v>208.1976249205994</v>
       </c>
       <c r="H10" t="n">
-        <v>178.4546564460382</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>1053.877663279709</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>715.9594172515172</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.877663279709</v>
+        <v>715.9594172515172</v>
       </c>
       <c r="U10" t="n">
-        <v>1053.877663279709</v>
+        <v>426.8072408291969</v>
       </c>
       <c r="V10" t="n">
-        <v>799.1931750738223</v>
+        <v>426.8072408291969</v>
       </c>
       <c r="W10" t="n">
-        <v>799.1931750738223</v>
+        <v>426.8072408291969</v>
       </c>
       <c r="X10" t="n">
-        <v>571.203624175805</v>
+        <v>355.0875724185097</v>
       </c>
       <c r="Y10" t="n">
-        <v>571.203624175805</v>
+        <v>355.0875724185097</v>
       </c>
     </row>
     <row r="11">
@@ -5036,31 +5036,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5115,25 +5115,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>783.5579673960149</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>614.621784468108</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121635</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851784</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5200,10 +5200,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5239,10 +5239,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>965.2064322262546</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>965.2064322262546</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,16 +5288,16 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5361,22 +5361,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190824</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832228</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C16" t="n">
-        <v>634.9279362553159</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1757.603793154328</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1502.919304948441</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1213.50213491148</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>985.5125840134625</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5125840134625</v>
+        <v>948.5505208511906</v>
       </c>
     </row>
     <row r="17">
@@ -5504,31 +5504,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5552,10 +5552,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2253.988764961267</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>809.0422355233313</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>640.1060525954244</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2271.458601127297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2051.857136150238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1762.781909494436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1508.097421288549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1218.680251251588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>990.6907003535711</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>990.6907003535711</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5726,46 +5726,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5838,19 +5838,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5963,46 +5963,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6069,25 +6069,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>184.7035232280583</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M24" t="n">
-        <v>923.0670414349511</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>950.7540666811333</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>781.8178837532264</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D25" t="n">
-        <v>631.7012443408906</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2414.36154645157</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2414.36154645157</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2414.36154645157</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>2125.286319795768</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1870.601831589881</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6212,31 +6212,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>870.3164745246296</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>701.3802915967227</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D28" t="n">
-        <v>551.263652184387</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E28" t="n">
-        <v>403.3505586019938</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="F28" t="n">
-        <v>256.4606111040835</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="G28" t="n">
-        <v>256.4606111040835</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1272.757518498399</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1051.964939354869</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6467,22 +6467,22 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6598,22 +6598,22 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345479</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6686,40 +6686,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637307</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6835,19 +6835,19 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345479</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6883,7 +6883,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6892,7 +6892,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6917,40 +6917,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.311647517213</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
         <v>782.5512955656818</v>
@@ -7081,13 +7081,13 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7096,31 +7096,31 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931275</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7257,22 +7257,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N39" t="n">
-        <v>2129.438138565707</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K40" t="n">
         <v>483.8255460380727</v>
@@ -7351,19 +7351,19 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7594,7 +7594,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7637,10 +7637,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7722,19 +7722,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7834,10 +7834,10 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093296</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8456,22 +8456,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>312.2066704284447</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>50.31370338866014</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,19 +8538,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>167.9634363311153</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>31.17902072732738</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>-8.013003602730812e-14</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -22547,25 +22547,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>229.1984258243623</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>74.6050980068087</v>
       </c>
       <c r="G2" t="n">
-        <v>103.9197283712125</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,19 +22592,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>265.8631296108531</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22702,13 +22702,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22717,13 +22717,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22759,19 +22759,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>21.87414536972213</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23419,19 +23419,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>143.621275417216</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>48.42266963728937</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>68.52575990662484</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>31.93331737597606</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>43.26526345294945</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>7.276848373210584</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,10 +24127,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>65.5498640939303</v>
       </c>
       <c r="D22" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24364,13 +24364,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>41.54258064659051</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>34.09972495271781</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>44.73700564187163</v>
       </c>
       <c r="H28" t="n">
-        <v>60.54304058923897</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>-1.014743972193151e-13</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>-2.557953848736361e-13</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1276135.446231859</v>
+        <v>1276135.446231858</v>
       </c>
     </row>
     <row r="10">
@@ -26314,7 +26314,7 @@
         <v>116044.8438455267</v>
       </c>
       <c r="C2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="D2" t="n">
         <v>143682.3097262497</v>
@@ -26326,25 +26326,25 @@
         <v>141250.6549457511</v>
       </c>
       <c r="G2" t="n">
+        <v>141250.6549457512</v>
+      </c>
+      <c r="H2" t="n">
+        <v>141250.6549457512</v>
+      </c>
+      <c r="I2" t="n">
+        <v>141250.6549457512</v>
+      </c>
+      <c r="J2" t="n">
         <v>141250.6549457511</v>
-      </c>
-      <c r="H2" t="n">
-        <v>141250.6549457511</v>
-      </c>
-      <c r="I2" t="n">
-        <v>141250.6549457511</v>
-      </c>
-      <c r="J2" t="n">
-        <v>141250.6549457512</v>
       </c>
       <c r="K2" t="n">
         <v>143682.3097262497</v>
       </c>
       <c r="L2" t="n">
+        <v>143682.3097262496</v>
+      </c>
+      <c r="M2" t="n">
         <v>143682.3097262497</v>
-      </c>
-      <c r="M2" t="n">
-        <v>143682.3097262496</v>
       </c>
       <c r="N2" t="n">
         <v>143682.3097262497</v>
@@ -26353,7 +26353,7 @@
         <v>143682.3097262497</v>
       </c>
       <c r="P2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>184756.2785481117</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808062</v>
+        <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,7 +26390,7 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363173</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363173</v>
       </c>
     </row>
     <row r="4">
@@ -26430,25 +26430,25 @@
         <v>5677.536566682744</v>
       </c>
       <c r="G4" t="n">
+        <v>5677.536566682734</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5677.536566682718</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5677.536566682721</v>
+      </c>
+      <c r="J4" t="n">
         <v>5677.536566682744</v>
       </c>
-      <c r="H4" t="n">
-        <v>5677.536566682751</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5677.536566682747</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5677.536566682749</v>
-      </c>
       <c r="K4" t="n">
-        <v>13668.39582977619</v>
+        <v>13668.39582977621</v>
       </c>
       <c r="L4" t="n">
-        <v>13668.39582977619</v>
+        <v>13668.39582977621</v>
       </c>
       <c r="M4" t="n">
-        <v>13668.39582977619</v>
+        <v>13668.39582977624</v>
       </c>
       <c r="N4" t="n">
         <v>13668.39582977621</v>
@@ -26457,7 +26457,7 @@
         <v>13668.39582977621</v>
       </c>
       <c r="P4" t="n">
-        <v>13668.39582977622</v>
+        <v>13668.3958297762</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-676564.2113134284</v>
+        <v>-676959.0322545816</v>
       </c>
       <c r="C6" t="n">
-        <v>-149099.1838001931</v>
+        <v>-149099.1838001932</v>
       </c>
       <c r="D6" t="n">
         <v>-304902.9898939881</v>
       </c>
       <c r="E6" t="n">
-        <v>-736602.1028256449</v>
+        <v>-736636.8407510808</v>
       </c>
       <c r="F6" t="n">
-        <v>34450.58855516122</v>
+        <v>34415.85062972552</v>
       </c>
       <c r="G6" t="n">
-        <v>34450.58855516124</v>
+        <v>34415.85062972564</v>
       </c>
       <c r="H6" t="n">
-        <v>34450.58855516124</v>
+        <v>34415.85062972564</v>
       </c>
       <c r="I6" t="n">
-        <v>34450.58855516122</v>
+        <v>34415.85062972567</v>
       </c>
       <c r="J6" t="n">
-        <v>-141972.6306374316</v>
+        <v>-142007.3685628674</v>
       </c>
       <c r="K6" t="n">
-        <v>7422.080048926349</v>
+        <v>7422.080048926291</v>
       </c>
       <c r="L6" t="n">
-        <v>26849.79804255808</v>
+        <v>26849.79804255802</v>
       </c>
       <c r="M6" t="n">
-        <v>-97358.71266550047</v>
+        <v>-97358.71266550042</v>
       </c>
       <c r="N6" t="n">
         <v>26849.79804255805</v>
       </c>
       <c r="O6" t="n">
-        <v>26849.79804255808</v>
+        <v>26849.79804255805</v>
       </c>
       <c r="P6" t="n">
-        <v>7422.080048926291</v>
+        <v>7422.080048926306</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203969</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="3">
@@ -26932,22 +26932,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203966</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>215.7324361209785</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036085</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>136.0744659466453</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27391,10 +27391,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>309.8644416495824</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27585,25 +27585,25 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>123.4093901649005</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>192.820806079989</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>123.3833170624752</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>51.77827695396243</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>15.4017322996034</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>133.7976803007307</v>
       </c>
       <c r="G8" t="n">
-        <v>167.9977649429282</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27913,7 +27913,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>73.47477871094023</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
         <v>17.69584188176898</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>154.7071836624568</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28251,10 +28251,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="E13" t="n">
-        <v>-8.483880264975597e-13</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
   </sheetData>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,28 +31835,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>228.3420541567482</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -31865,10 +31865,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>272.7569329364655</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>359.7096985496632</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>163.4402738502014</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>730.8697159579442</v>
       </c>
       <c r="N21" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32789,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>229.6463482471735</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>556.7959610899863</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>597.1709559744729</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359099</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33260,19 +33260,19 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>272.7569329364655</v>
       </c>
       <c r="M30" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>225.4828684302374</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>754.0002396832328</v>
       </c>
       <c r="O36" t="n">
-        <v>340.4395077511227</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33977,25 +33977,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>200.3460366764704</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,25 +34205,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>688.8020111197787</v>
+        <v>483.3274636075166</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
@@ -34454,10 +34454,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>752.2150000824579</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,7 +35021,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856235</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35030,7 +35030,7 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35176,22 +35176,22 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>140.7360160012659</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>508.5038551678209</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
         <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>85.65119835996833</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
@@ -35258,19 +35258,19 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>368.6268117378473</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>192.3025688775907</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35483,28 +35483,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>97.00034207341486</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>134.2025531565913</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>228.3679864663299</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>29.46586643587111</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>588.7356820359258</v>
       </c>
       <c r="N21" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>425.454249006653</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>455.0369220524547</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>134.2025531565913</v>
       </c>
       <c r="M30" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
         <v>288.6172359016746</v>
@@ -37005,7 +37005,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
         <v>144.686904791938</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>82.88662398579301</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,10 +37227,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>622.6585275998996</v>
       </c>
       <c r="O36" t="n">
-        <v>197.8432633066783</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37552,7 +37552,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>57.74979223202591</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016746</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37853,25 +37853,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>546.2057666753343</v>
+        <v>340.7312191630721</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38102,10 +38102,10 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>620.8732879991246</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
